--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9188433333333333</v>
+        <v>1.243164333333333</v>
       </c>
       <c r="H2">
-        <v>2.75653</v>
+        <v>3.729493</v>
       </c>
       <c r="I2">
-        <v>0.4949181001599916</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="J2">
-        <v>0.4949181001599915</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>0.4766640680977777</v>
+        <v>0.769256829047111</v>
       </c>
       <c r="R2">
-        <v>4.28997661288</v>
+        <v>6.923311461424</v>
       </c>
       <c r="S2">
-        <v>0.08021746762970595</v>
+        <v>0.09338797860891992</v>
       </c>
       <c r="T2">
-        <v>0.08021746762970593</v>
+        <v>0.09338797860891994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9188433333333333</v>
+        <v>1.243164333333333</v>
       </c>
       <c r="H3">
-        <v>2.75653</v>
+        <v>3.729493</v>
       </c>
       <c r="I3">
-        <v>0.4949181001599916</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="J3">
-        <v>0.4949181001599915</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>2.052680998892222</v>
+        <v>2.777208815649223</v>
       </c>
       <c r="R3">
-        <v>18.47412899003</v>
+        <v>24.99487934084301</v>
       </c>
       <c r="S3">
-        <v>0.3454442711401786</v>
+        <v>0.3371538706905256</v>
       </c>
       <c r="T3">
-        <v>0.3454442711401786</v>
+        <v>0.3371538706905256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9188433333333333</v>
+        <v>1.243164333333333</v>
       </c>
       <c r="H4">
-        <v>2.75653</v>
+        <v>3.729493</v>
       </c>
       <c r="I4">
-        <v>0.4949181001599916</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="J4">
-        <v>0.4949181001599915</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>0.1239712613766667</v>
+        <v>0.2575314369646667</v>
       </c>
       <c r="R4">
-        <v>1.11574135239</v>
+        <v>2.317782932682</v>
       </c>
       <c r="S4">
-        <v>0.02086303816896186</v>
+        <v>0.03126438325698348</v>
       </c>
       <c r="T4">
-        <v>0.02086303816896186</v>
+        <v>0.03126438325698348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9188433333333333</v>
+        <v>1.243164333333333</v>
       </c>
       <c r="H5">
-        <v>2.75653</v>
+        <v>3.729493</v>
       </c>
       <c r="I5">
-        <v>0.4949181001599916</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="J5">
-        <v>0.4949181001599915</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>0.1545506737911111</v>
+        <v>0.2349489424615556</v>
       </c>
       <c r="R5">
-        <v>1.39095606412</v>
+        <v>2.114540482154</v>
       </c>
       <c r="S5">
-        <v>0.02600922641696705</v>
+        <v>0.02852286256589653</v>
       </c>
       <c r="T5">
-        <v>0.02600922641696704</v>
+        <v>0.02852286256589653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9188433333333333</v>
+        <v>1.243164333333333</v>
       </c>
       <c r="H6">
-        <v>2.75653</v>
+        <v>3.729493</v>
       </c>
       <c r="I6">
-        <v>0.4949181001599916</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="J6">
-        <v>0.4949181001599915</v>
+        <v>0.5291000614577227</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>0.1330096169655556</v>
+        <v>0.3193647733522222</v>
       </c>
       <c r="R6">
-        <v>1.19708655269</v>
+        <v>2.87428296017</v>
       </c>
       <c r="S6">
-        <v>0.02238409680417819</v>
+        <v>0.03877096633539713</v>
       </c>
       <c r="T6">
-        <v>0.02238409680417818</v>
+        <v>0.03877096633539713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>2.653752</v>
       </c>
       <c r="I7">
-        <v>0.4764649389398185</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="J7">
-        <v>0.4764649389398184</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N7">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q7">
-        <v>0.4588915136213333</v>
+        <v>0.5473711436373333</v>
       </c>
       <c r="R7">
-        <v>4.130023622592</v>
+        <v>4.926340292736</v>
       </c>
       <c r="S7">
-        <v>0.07722653668099655</v>
+        <v>0.06645099883801323</v>
       </c>
       <c r="T7">
-        <v>0.07722653668099652</v>
+        <v>0.06645099883801323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.653752</v>
       </c>
       <c r="I8">
-        <v>0.4764649389398185</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="J8">
-        <v>0.4764649389398184</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P8">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q8">
         <v>1.976146207794667</v>
@@ -948,10 +948,10 @@
         <v>17.785315870152</v>
       </c>
       <c r="S8">
-        <v>0.3325642838738527</v>
+        <v>0.2399046622832443</v>
       </c>
       <c r="T8">
-        <v>0.3325642838738526</v>
+        <v>0.2399046622832443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.653752</v>
       </c>
       <c r="I9">
-        <v>0.4764649389398185</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="J9">
-        <v>0.4764649389398184</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N9">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q9">
-        <v>0.119348957864</v>
+        <v>0.183248652272</v>
       </c>
       <c r="R9">
-        <v>1.074140620776</v>
+        <v>1.649237870448</v>
       </c>
       <c r="S9">
-        <v>0.02008515389528098</v>
+        <v>0.02224643392466119</v>
       </c>
       <c r="T9">
-        <v>0.02008515389528097</v>
+        <v>0.02224643392466119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>2.653752</v>
       </c>
       <c r="I10">
-        <v>0.4764649389398185</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="J10">
-        <v>0.4764649389398184</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N10">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O10">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P10">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q10">
-        <v>0.1487882082453333</v>
+        <v>0.1671798890506667</v>
       </c>
       <c r="R10">
-        <v>1.339093874208</v>
+        <v>1.504619001456</v>
       </c>
       <c r="S10">
-        <v>0.02503946506023121</v>
+        <v>0.02029568190099111</v>
       </c>
       <c r="T10">
-        <v>0.0250394650602312</v>
+        <v>0.02029568190099111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.653752</v>
       </c>
       <c r="I11">
-        <v>0.4764649389398185</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="J11">
-        <v>0.4764649389398184</v>
+        <v>0.3764855829716142</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N11">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O11">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P11">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q11">
-        <v>0.1280503158106667</v>
+        <v>0.2272466809866666</v>
       </c>
       <c r="R11">
-        <v>1.152452842296</v>
+        <v>2.04522012888</v>
       </c>
       <c r="S11">
-        <v>0.02154949942945713</v>
+        <v>0.02758780602470438</v>
       </c>
       <c r="T11">
-        <v>0.02154949942945713</v>
+        <v>0.02758780602470438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.053129</v>
+        <v>0.2218343333333333</v>
       </c>
       <c r="H12">
-        <v>0.159387</v>
+        <v>0.665503</v>
       </c>
       <c r="I12">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066305</v>
       </c>
       <c r="J12">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066304</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N12">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q12">
-        <v>0.02756148339466667</v>
+        <v>0.1372687192337778</v>
       </c>
       <c r="R12">
-        <v>0.248053350552</v>
+        <v>1.235418473104</v>
       </c>
       <c r="S12">
-        <v>0.004638303052423134</v>
+        <v>0.01666445812558759</v>
       </c>
       <c r="T12">
-        <v>0.004638303052423133</v>
+        <v>0.01666445812558759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.053129</v>
+        <v>0.2218343333333333</v>
       </c>
       <c r="H13">
-        <v>0.159387</v>
+        <v>0.665503</v>
       </c>
       <c r="I13">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066305</v>
       </c>
       <c r="J13">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P13">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q13">
-        <v>0.1186893182263333</v>
+        <v>0.4955742773725556</v>
       </c>
       <c r="R13">
-        <v>1.068203864037</v>
+        <v>4.460168496353001</v>
       </c>
       <c r="S13">
-        <v>0.01997414359510677</v>
+        <v>0.06016284583619191</v>
       </c>
       <c r="T13">
-        <v>0.01997414359510676</v>
+        <v>0.06016284583619191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.053129</v>
+        <v>0.2218343333333333</v>
       </c>
       <c r="H14">
-        <v>0.159387</v>
+        <v>0.665503</v>
       </c>
       <c r="I14">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066305</v>
       </c>
       <c r="J14">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066304</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N14">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q14">
-        <v>0.007168217809</v>
+        <v>0.04595475682466667</v>
       </c>
       <c r="R14">
-        <v>0.064513960281</v>
+        <v>0.4135928114220001</v>
       </c>
       <c r="S14">
-        <v>0.001206334436641837</v>
+        <v>0.005578919400216673</v>
       </c>
       <c r="T14">
-        <v>0.001206334436641837</v>
+        <v>0.005578919400216672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.053129</v>
+        <v>0.2218343333333333</v>
       </c>
       <c r="H15">
-        <v>0.159387</v>
+        <v>0.665503</v>
       </c>
       <c r="I15">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066305</v>
       </c>
       <c r="J15">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066304</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N15">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O15">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P15">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q15">
-        <v>0.008936368638666668</v>
+        <v>0.04192506221488889</v>
       </c>
       <c r="R15">
-        <v>0.08042731774800001</v>
+        <v>0.377325559934</v>
       </c>
       <c r="S15">
-        <v>0.001503895321625786</v>
+        <v>0.005089713429195829</v>
       </c>
       <c r="T15">
-        <v>0.001503895321625785</v>
+        <v>0.005089713429195827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.053129</v>
+        <v>0.2218343333333333</v>
       </c>
       <c r="H16">
-        <v>0.159387</v>
+        <v>0.665503</v>
       </c>
       <c r="I16">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066305</v>
       </c>
       <c r="J16">
-        <v>0.02861696090018994</v>
+        <v>0.09441435557066304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N16">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O16">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P16">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q16">
-        <v>0.007690830072333334</v>
+        <v>0.05698850078555556</v>
       </c>
       <c r="R16">
-        <v>0.06921747065100001</v>
+        <v>0.51289650707</v>
       </c>
       <c r="S16">
-        <v>0.001294284494392424</v>
+        <v>0.006918418779471043</v>
       </c>
       <c r="T16">
-        <v>0.001294284494392424</v>
+        <v>0.006918418779471042</v>
       </c>
     </row>
   </sheetData>
